--- a/assets/profit_calculation.xlsx
+++ b/assets/profit_calculation.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arpan\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\nft-backend\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E15A51D-8D6B-4E68-B54A-B1D6007ACE3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A4A09C-34F2-40B1-A13A-3DCCD4210462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{3A967B56-A45A-42D6-8ECB-55A7102DE892}"/>
   </bookViews>
@@ -51,9 +51,6 @@
     <t>AnualzedReturns</t>
   </si>
   <si>
-    <t>CommunityVuilding</t>
-  </si>
-  <si>
     <t>LV.A</t>
   </si>
   <si>
@@ -94,6 +91,9 @@
   </si>
   <si>
     <t>10000-30000</t>
+  </si>
+  <si>
+    <t>CommunityBuilding</t>
   </si>
 </sst>
 </file>
@@ -152,7 +152,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -161,6 +161,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -478,39 +484,39 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F1" sqref="F1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="16.86328125" customWidth="1"/>
     <col min="4" max="4" width="16.9296875" customWidth="1"/>
-    <col min="5" max="5" width="18.265625" customWidth="1"/>
-    <col min="6" max="6" width="20.796875" customWidth="1"/>
+    <col min="5" max="5" width="16.06640625" customWidth="1"/>
+    <col min="6" max="6" width="8.3984375" customWidth="1"/>
     <col min="7" max="7" width="11.265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="F1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A2" s="1"/>
@@ -518,22 +524,22 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="C3" s="4">
         <v>1.7999999999999999E-2</v>
@@ -544,22 +550,22 @@
       <c r="E3" s="5">
         <v>6.57</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>11</v>
+      <c r="F3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="4">
         <v>2.1000000000000001E-2</v>
@@ -582,10 +588,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="4">
         <v>2.5999999999999999E-2</v>
@@ -608,10 +614,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="4">
         <v>3.1E-2</v>
@@ -634,10 +640,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="4">
         <v>3.6999999999999998E-2</v>
